--- a/transPF.xlsx
+++ b/transPF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajeshwari\Downloads\Gurpreet\Frieght\RAW FILES\RAW FILES\Test Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1E0C039-B15C-4BDA-973C-1B485EBC5406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFE62A4-830F-446C-BA01-9E0C26DE0A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A4C38D0-A6A2-4A59-A0F7-0E4A2A0D83F8}"/>
   </bookViews>
